--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/DayReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/DayReport.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693" activeTab="1"/>
+    <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
   </bookViews>
   <sheets>
     <sheet name="短差" sheetId="39" r:id="rId1"/>
     <sheet name="合计" sheetId="94" r:id="rId2"/>
-    <sheet name="檀显峰" sheetId="158" r:id="rId3"/>
+    <sheet name="翁轩涛" sheetId="158" r:id="rId3"/>
     <sheet name="骆加" sheetId="159" r:id="rId4"/>
     <sheet name="刘兴兴" sheetId="162" r:id="rId5"/>
     <sheet name="陈振东" sheetId="165" r:id="rId6"/>
@@ -746,8 +746,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1938582912"/>
-        <c:axId val="1938593248"/>
+        <c:axId val="191922176"/>
+        <c:axId val="191923712"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1310,8 +1310,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1938582912"/>
-        <c:axId val="1938593248"/>
+        <c:axId val="191922176"/>
+        <c:axId val="191923712"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2044,11 +2044,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1938587264"/>
-        <c:axId val="1938594336"/>
+        <c:axId val="191947904"/>
+        <c:axId val="191925632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1938582912"/>
+        <c:axId val="191922176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2068,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938593248"/>
+        <c:crossAx val="191923712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2076,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1938593248"/>
+        <c:axId val="191923712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2148,12 +2148,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938582912"/>
+        <c:crossAx val="191922176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1938594336"/>
+        <c:axId val="191925632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,12 +2173,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938587264"/>
+        <c:crossAx val="191947904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1938587264"/>
+        <c:axId val="191947904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1938594336"/>
+        <c:crossAx val="191925632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,10 +2260,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>翁轩涛</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>檀显峰收益合计表（近</a:t>
+              <a:t>收益合计表（近</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -2315,7 +2321,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$U$33</c:f>
+              <c:f>翁轩涛!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2394,7 +2400,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2403,7 +2409,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$U$34:$U$65</c:f>
+              <c:f>翁轩涛!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -2424,144 +2430,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>檀显峰!$Q$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>周一</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="20000"/>
-                  <a:lumOff val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx2">
-                    <a:lumMod val="20000"/>
-                    <a:lumOff val="80000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
-              <c:numCache>
-                <c:formatCode>yy/m/d;@</c:formatCode>
-                <c:ptCount val="32"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>檀显峰!$Q$34:$Q$65</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2634,8 +2502,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1717009024"/>
-        <c:axId val="1717007392"/>
+        <c:axId val="194990848"/>
+        <c:axId val="194992384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2645,7 +2513,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$R$33</c:f>
+              <c:f>翁轩涛!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2794,7 +2662,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2803,7 +2671,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$R$34:$R$65</c:f>
+              <c:f>翁轩涛!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -2814,10 +2682,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$G$33</c:f>
+              <c:f>翁轩涛!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2962,7 +2830,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2971,7 +2839,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$G$34:$G$65</c:f>
+              <c:f>翁轩涛!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2982,10 +2850,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$E$33</c:f>
+              <c:f>翁轩涛!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3078,7 +2946,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$E$34:$E$65</c:f>
+              <c:f>翁轩涛!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3097,18 +2965,18 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1717009024"/>
-        <c:axId val="1717007392"/>
+        <c:axId val="194990848"/>
+        <c:axId val="194992384"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$H$33</c:f>
+              <c:f>翁轩涛!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3252,7 +3120,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$H$34:$H$65</c:f>
+              <c:f>翁轩涛!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3263,10 +3131,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$X$33</c:f>
+              <c:f>翁轩涛!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3365,7 +3233,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$X$34:$X$65</c:f>
+              <c:f>翁轩涛!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3472,10 +3340,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$M$33</c:f>
+              <c:f>翁轩涛!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3596,7 +3464,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$M$34:$M$65</c:f>
+              <c:f>翁轩涛!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3703,10 +3571,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$F$33</c:f>
+              <c:f>翁轩涛!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3802,7 +3670,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$F$34:$F$65</c:f>
+              <c:f>翁轩涛!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3821,11 +3689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1717000320"/>
-        <c:axId val="1717007936"/>
+        <c:axId val="195016576"/>
+        <c:axId val="195015040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1717009024"/>
+        <c:axId val="194990848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3845,7 +3713,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717007392"/>
+        <c:crossAx val="194992384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3853,7 +3721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1717007392"/>
+        <c:axId val="194992384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,12 +3793,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717009024"/>
+        <c:crossAx val="194990848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1717007936"/>
+        <c:axId val="195015040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,12 +3818,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717000320"/>
+        <c:crossAx val="195016576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1717000320"/>
+        <c:axId val="195016576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,7 +3832,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1717007936"/>
+        <c:crossAx val="195015040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4417,8 +4285,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1716998144"/>
-        <c:axId val="1717000864"/>
+        <c:axId val="195209088"/>
+        <c:axId val="195210624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4993,8 +4861,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1716998144"/>
-        <c:axId val="1717000864"/>
+        <c:axId val="195209088"/>
+        <c:axId val="195210624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5717,11 +5585,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1717001952"/>
-        <c:axId val="1717001408"/>
+        <c:axId val="195230720"/>
+        <c:axId val="195229184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1716998144"/>
+        <c:axId val="195209088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5741,7 +5609,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717000864"/>
+        <c:crossAx val="195210624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5749,7 +5617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1717000864"/>
+        <c:axId val="195210624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5821,12 +5689,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1716998144"/>
+        <c:crossAx val="195209088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1717001408"/>
+        <c:axId val="195229184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5846,12 +5714,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717001952"/>
+        <c:crossAx val="195230720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1717001952"/>
+        <c:axId val="195230720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5860,7 +5728,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1717001408"/>
+        <c:crossAx val="195229184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6238,8 +6106,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1717004128"/>
-        <c:axId val="1717004672"/>
+        <c:axId val="196692224"/>
+        <c:axId val="196706304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6809,8 +6677,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1717004128"/>
-        <c:axId val="1717004672"/>
+        <c:axId val="196692224"/>
+        <c:axId val="196706304"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7533,11 +7401,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814941600"/>
-        <c:axId val="1814937248"/>
+        <c:axId val="196709760"/>
+        <c:axId val="196708224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1717004128"/>
+        <c:axId val="196692224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7557,7 +7425,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717004672"/>
+        <c:crossAx val="196706304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7565,7 +7433,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1717004672"/>
+        <c:axId val="196706304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7637,12 +7505,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717004128"/>
+        <c:crossAx val="196692224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1814937248"/>
+        <c:axId val="196708224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7662,12 +7530,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814941600"/>
+        <c:crossAx val="196709760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1814941600"/>
+        <c:axId val="196709760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7676,7 +7544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1814937248"/>
+        <c:crossAx val="196708224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8129,8 +7997,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1814931264"/>
-        <c:axId val="1814930176"/>
+        <c:axId val="197016960"/>
+        <c:axId val="197035136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8705,8 +8573,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814931264"/>
-        <c:axId val="1814930176"/>
+        <c:axId val="197016960"/>
+        <c:axId val="197035136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9429,11 +9297,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814931808"/>
-        <c:axId val="1814935616"/>
+        <c:axId val="197047040"/>
+        <c:axId val="197037056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1814931264"/>
+        <c:axId val="197016960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9453,7 +9321,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814930176"/>
+        <c:crossAx val="197035136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -9461,7 +9329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1814930176"/>
+        <c:axId val="197035136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9533,12 +9401,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814931264"/>
+        <c:crossAx val="197016960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1814935616"/>
+        <c:axId val="197037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9558,12 +9426,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814931808"/>
+        <c:crossAx val="197047040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1814931808"/>
+        <c:axId val="197047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9572,7 +9440,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1814935616"/>
+        <c:crossAx val="197037056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10025,8 +9893,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1814932896"/>
-        <c:axId val="1814944320"/>
+        <c:axId val="198525696"/>
+        <c:axId val="198527232"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10601,8 +10469,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814932896"/>
-        <c:axId val="1814944320"/>
+        <c:axId val="198525696"/>
+        <c:axId val="198527232"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11325,11 +11193,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814932352"/>
-        <c:axId val="1814944864"/>
+        <c:axId val="198543232"/>
+        <c:axId val="198541696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1814932896"/>
+        <c:axId val="198525696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11349,7 +11217,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814944320"/>
+        <c:crossAx val="198527232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -11357,7 +11225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1814944320"/>
+        <c:axId val="198527232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11429,12 +11297,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814932896"/>
+        <c:crossAx val="198525696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1814944864"/>
+        <c:axId val="198541696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11454,12 +11322,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814932352"/>
+        <c:crossAx val="198543232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1814932352"/>
+        <c:axId val="198543232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11468,7 +11336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1814944864"/>
+        <c:crossAx val="198541696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11921,8 +11789,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1814936160"/>
-        <c:axId val="1809872368"/>
+        <c:axId val="198730880"/>
+        <c:axId val="198732416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12492,8 +12360,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1814936160"/>
-        <c:axId val="1809872368"/>
+        <c:axId val="198730880"/>
+        <c:axId val="198732416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -13216,11 +13084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809878896"/>
-        <c:axId val="1809877264"/>
+        <c:axId val="198748416"/>
+        <c:axId val="198746880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1814936160"/>
+        <c:axId val="198730880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13240,7 +13108,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809872368"/>
+        <c:crossAx val="198732416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -13248,7 +13116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809872368"/>
+        <c:axId val="198732416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13320,12 +13188,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1814936160"/>
+        <c:crossAx val="198730880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1809877264"/>
+        <c:axId val="198746880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13345,12 +13213,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809878896"/>
+        <c:crossAx val="198748416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1809878896"/>
+        <c:axId val="198748416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13359,7 +13227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1809877264"/>
+        <c:crossAx val="198746880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13814,8 +13682,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1809868560"/>
-        <c:axId val="1809875088"/>
+        <c:axId val="198973696"/>
+        <c:axId val="198991872"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14390,8 +14258,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809868560"/>
-        <c:axId val="1809875088"/>
+        <c:axId val="198973696"/>
+        <c:axId val="198991872"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -15118,11 +14986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1809874000"/>
-        <c:axId val="1809870192"/>
+        <c:axId val="198995328"/>
+        <c:axId val="198993792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809868560"/>
+        <c:axId val="198973696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15142,7 +15010,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809875088"/>
+        <c:crossAx val="198991872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -15150,7 +15018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809875088"/>
+        <c:axId val="198991872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15222,12 +15090,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809868560"/>
+        <c:crossAx val="198973696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1809870192"/>
+        <c:axId val="198993792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15247,12 +15115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809874000"/>
+        <c:crossAx val="198995328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1809874000"/>
+        <c:axId val="198995328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15261,7 +15129,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1809870192"/>
+        <c:crossAx val="198993792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15726,8 +15594,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1938590528"/>
-        <c:axId val="1938594880"/>
+        <c:axId val="192086784"/>
+        <c:axId val="192088320"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16312,8 +16180,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1938590528"/>
-        <c:axId val="1938594880"/>
+        <c:axId val="192086784"/>
+        <c:axId val="192088320"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17046,11 +16914,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1938595424"/>
-        <c:axId val="1938588896"/>
+        <c:axId val="192112512"/>
+        <c:axId val="192110976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1938590528"/>
+        <c:axId val="192086784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17070,7 +16938,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938594880"/>
+        <c:crossAx val="192088320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -17078,7 +16946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1938594880"/>
+        <c:axId val="192088320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17150,12 +17018,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938590528"/>
+        <c:crossAx val="192086784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1938588896"/>
+        <c:axId val="192110976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17175,12 +17043,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1938595424"/>
+        <c:crossAx val="192112512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1938595424"/>
+        <c:axId val="192112512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17189,7 +17057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1938588896"/>
+        <c:crossAx val="192110976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17504,8 +17372,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772976384"/>
-        <c:axId val="1772989440"/>
+        <c:axId val="192228736"/>
+        <c:axId val="192255104"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18085,8 +17953,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772976384"/>
-        <c:axId val="1772989440"/>
+        <c:axId val="192228736"/>
+        <c:axId val="192255104"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -18819,11 +18687,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772982912"/>
-        <c:axId val="1772977472"/>
+        <c:axId val="192271104"/>
+        <c:axId val="192257024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772976384"/>
+        <c:axId val="192228736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18843,7 +18711,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772989440"/>
+        <c:crossAx val="192255104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -18851,7 +18719,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772989440"/>
+        <c:axId val="192255104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18923,12 +18791,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772976384"/>
+        <c:crossAx val="192228736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772977472"/>
+        <c:axId val="192257024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18948,12 +18816,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772982912"/>
+        <c:crossAx val="192271104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772982912"/>
+        <c:axId val="192271104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18962,7 +18830,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772977472"/>
+        <c:crossAx val="192257024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19415,8 +19283,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772984544"/>
-        <c:axId val="1772979648"/>
+        <c:axId val="192758144"/>
+        <c:axId val="192759680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -20001,8 +19869,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772984544"/>
-        <c:axId val="1772979648"/>
+        <c:axId val="192758144"/>
+        <c:axId val="192759680"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -20735,11 +20603,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772974752"/>
-        <c:axId val="1772974208"/>
+        <c:axId val="192779776"/>
+        <c:axId val="192778240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772984544"/>
+        <c:axId val="192758144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20759,7 +20627,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772979648"/>
+        <c:crossAx val="192759680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20767,7 +20635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772979648"/>
+        <c:axId val="192759680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20839,12 +20707,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772984544"/>
+        <c:crossAx val="192758144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772974208"/>
+        <c:axId val="192778240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20864,12 +20732,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772974752"/>
+        <c:crossAx val="192779776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772974752"/>
+        <c:axId val="192779776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20878,7 +20746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772974208"/>
+        <c:crossAx val="192778240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21335,8 +21203,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772980192"/>
-        <c:axId val="1772980736"/>
+        <c:axId val="192946944"/>
+        <c:axId val="192948480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -21631,8 +21499,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772980192"/>
-        <c:axId val="1772980736"/>
+        <c:axId val="192946944"/>
+        <c:axId val="192948480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -22365,11 +22233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772981824"/>
-        <c:axId val="1772981280"/>
+        <c:axId val="192964480"/>
+        <c:axId val="192962944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772980192"/>
+        <c:axId val="192946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22389,7 +22257,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772980736"/>
+        <c:crossAx val="192948480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -22397,7 +22265,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772980736"/>
+        <c:axId val="192948480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22469,12 +22337,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772980192"/>
+        <c:crossAx val="192946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1772981280"/>
+        <c:axId val="192962944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22494,12 +22362,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772981824"/>
+        <c:crossAx val="192964480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1772981824"/>
+        <c:axId val="192964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22508,7 +22376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1772981280"/>
+        <c:crossAx val="192962944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22581,28 +22449,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>檀显峰</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>(</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>年后</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>)</a:t>
+              <a:t>翁轩涛</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -22660,7 +22510,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$U$33</c:f>
+              <c:f>翁轩涛!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22749,7 +22599,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -22758,7 +22608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$U$34:$U$65</c:f>
+              <c:f>翁轩涛!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -22851,8 +22701,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1772975840"/>
-        <c:axId val="1549510208"/>
+        <c:axId val="193065344"/>
+        <c:axId val="193066880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -22862,7 +22712,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$R$33</c:f>
+              <c:f>翁轩涛!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23011,7 +22861,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23020,7 +22870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$R$34:$R$65</c:f>
+              <c:f>翁轩涛!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -23034,7 +22884,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$V$33</c:f>
+              <c:f>翁轩涛!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23124,7 +22974,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23133,7 +22983,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$V$34:$V$65</c:f>
+              <c:f>翁轩涛!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23147,7 +22997,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$G$33</c:f>
+              <c:f>翁轩涛!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23292,7 +23142,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>檀显峰!$B$34:$B$65</c:f>
+              <c:f>翁轩涛!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy/m/d;@</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23301,7 +23151,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$G$34:$G$65</c:f>
+              <c:f>翁轩涛!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23315,7 +23165,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$E$33</c:f>
+              <c:f>翁轩涛!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23408,7 +23258,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$E$34:$E$65</c:f>
+              <c:f>翁轩涛!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23427,8 +23277,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1772975840"/>
-        <c:axId val="1549510208"/>
+        <c:axId val="193065344"/>
+        <c:axId val="193066880"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -23438,7 +23288,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$H$33</c:f>
+              <c:f>翁轩涛!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23582,7 +23432,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$H$34:$H$65</c:f>
+              <c:f>翁轩涛!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23596,7 +23446,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$X$33</c:f>
+              <c:f>翁轩涛!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23695,7 +23545,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$X$34:$X$65</c:f>
+              <c:f>翁轩涛!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -23805,7 +23655,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$M$33</c:f>
+              <c:f>翁轩涛!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23926,7 +23776,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$M$34:$M$65</c:f>
+              <c:f>翁轩涛!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -24036,7 +23886,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>檀显峰!$F$33</c:f>
+              <c:f>翁轩涛!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -24142,7 +23992,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>檀显峰!$F$34:$F$65</c:f>
+              <c:f>翁轩涛!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -24161,11 +24011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549515104"/>
-        <c:axId val="1549518368"/>
+        <c:axId val="193144320"/>
+        <c:axId val="193142784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1772975840"/>
+        <c:axId val="193065344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24185,7 +24035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549510208"/>
+        <c:crossAx val="193066880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -24193,7 +24043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1549510208"/>
+        <c:axId val="193066880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24265,12 +24115,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772975840"/>
+        <c:crossAx val="193065344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1549518368"/>
+        <c:axId val="193142784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24290,12 +24140,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549515104"/>
+        <c:crossAx val="193144320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1549515104"/>
+        <c:axId val="193144320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24304,7 +24154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1549518368"/>
+        <c:crossAx val="193142784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24757,8 +24607,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1549515648"/>
-        <c:axId val="1549508032"/>
+        <c:axId val="193429888"/>
+        <c:axId val="193431424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25338,8 +25188,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549515648"/>
-        <c:axId val="1549508032"/>
+        <c:axId val="193429888"/>
+        <c:axId val="193431424"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -26072,11 +25922,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549509664"/>
-        <c:axId val="1549512384"/>
+        <c:axId val="193435136"/>
+        <c:axId val="193433600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1549515648"/>
+        <c:axId val="193429888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26096,7 +25946,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549508032"/>
+        <c:crossAx val="193431424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -26104,7 +25954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1549508032"/>
+        <c:axId val="193431424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26176,12 +26026,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549515648"/>
+        <c:crossAx val="193429888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1549512384"/>
+        <c:axId val="193433600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26201,12 +26051,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549509664"/>
+        <c:crossAx val="193435136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1549509664"/>
+        <c:axId val="193435136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26215,7 +26065,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1549512384"/>
+        <c:crossAx val="193433600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26678,8 +26528,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1549520000"/>
-        <c:axId val="1549514016"/>
+        <c:axId val="194711936"/>
+        <c:axId val="194713472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27259,8 +27109,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549520000"/>
-        <c:axId val="1549514016"/>
+        <c:axId val="194711936"/>
+        <c:axId val="194713472"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27993,11 +27843,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549516192"/>
-        <c:axId val="1549514560"/>
+        <c:axId val="194721280"/>
+        <c:axId val="194719744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1549520000"/>
+        <c:axId val="194711936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28017,7 +27867,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549514016"/>
+        <c:crossAx val="194713472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -28025,7 +27875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1549514016"/>
+        <c:axId val="194713472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28097,12 +27947,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549520000"/>
+        <c:crossAx val="194711936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1549514560"/>
+        <c:axId val="194719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28122,12 +27972,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549516192"/>
+        <c:crossAx val="194721280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1549516192"/>
+        <c:axId val="194721280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28136,7 +27986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1549514560"/>
+        <c:crossAx val="194719744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28583,8 +28433,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="1549519456"/>
-        <c:axId val="1549508576"/>
+        <c:axId val="191673472"/>
+        <c:axId val="191675008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -28869,8 +28719,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1549519456"/>
-        <c:axId val="1549508576"/>
+        <c:axId val="191673472"/>
+        <c:axId val="191675008"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29593,11 +29443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1717012832"/>
-        <c:axId val="1549509120"/>
+        <c:axId val="191686912"/>
+        <c:axId val="191685376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1549519456"/>
+        <c:axId val="191673472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29617,7 +29467,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549508576"/>
+        <c:crossAx val="191675008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -29625,7 +29475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1549508576"/>
+        <c:axId val="191675008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29697,12 +29547,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1549519456"/>
+        <c:crossAx val="191673472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1549509120"/>
+        <c:axId val="191685376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29722,12 +29572,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1717012832"/>
+        <c:crossAx val="191686912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1717012832"/>
+        <c:axId val="191686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29736,7 +29586,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1549509120"/>
+        <c:crossAx val="191685376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -31857,7 +31707,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -31899,7 +31749,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -31934,7 +31784,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -32146,8 +31996,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="M13:M55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A196" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T175" sqref="T175"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32171,7 +32021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
@@ -33993,8 +33843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -35765,7 +35615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>

--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/DayReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/DayReport.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="1050" windowWidth="18825" windowHeight="6780" tabRatio="693"/>
@@ -11,12 +11,12 @@
     <sheet name="合计" sheetId="94" r:id="rId2"/>
     <sheet name="吕志远" sheetId="158" r:id="rId3"/>
     <sheet name="骆加" sheetId="159" r:id="rId4"/>
-    <sheet name="王一峰" sheetId="162" r:id="rId5"/>
+    <sheet name="雷豪" sheetId="162" r:id="rId5"/>
     <sheet name="徐琪" sheetId="191" r:id="rId6"/>
     <sheet name="王亚运" sheetId="197" r:id="rId7"/>
     <sheet name="王超骏" sheetId="198" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -440,19 +440,13 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>短差</a:t>
+              <a:t>雷豪</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>王一峰</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -510,7 +504,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$U$33</c:f>
+              <c:f>雷豪!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -565,7 +559,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -589,7 +585,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -673,7 +669,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$U$34:$U$65</c:f>
+              <c:f>雷豪!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -761,7 +757,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$Q$33</c:f>
+              <c:f>雷豪!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -802,7 +798,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -886,7 +882,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$Q$34:$Q$65</c:f>
+              <c:f>雷豪!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -904,8 +900,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="218041728"/>
-        <c:axId val="218064000"/>
+        <c:axId val="-665048288"/>
+        <c:axId val="-665056992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -915,7 +911,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$R$33</c:f>
+              <c:f>雷豪!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1064,7 +1060,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1148,7 +1144,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$R$34:$R$65</c:f>
+              <c:f>雷豪!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -1162,7 +1158,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$V$33</c:f>
+              <c:f>雷豪!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,7 +1248,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1336,7 +1332,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$V$34:$V$65</c:f>
+              <c:f>雷豪!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1350,7 +1346,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$G$33</c:f>
+              <c:f>雷豪!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,7 +1416,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1490,7 +1488,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1574,7 +1572,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$G$34:$G$65</c:f>
+              <c:f>雷豪!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1663,7 +1661,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$E$33</c:f>
+              <c:f>雷豪!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1715,7 +1713,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -1749,7 +1749,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$E$34:$E$65</c:f>
+              <c:f>雷豪!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -1843,8 +1843,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218041728"/>
-        <c:axId val="218064000"/>
+        <c:axId val="-665048288"/>
+        <c:axId val="-665056992"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1854,7 +1854,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$H$33</c:f>
+              <c:f>雷豪!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1918,7 +1918,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -1998,7 +2000,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$H$34:$H$65</c:f>
+              <c:f>雷豪!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2087,7 +2089,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$X$33</c:f>
+              <c:f>雷豪!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2127,7 +2129,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2186,7 +2190,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$X$34:$X$65</c:f>
+              <c:f>雷豪!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2296,7 +2300,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$M$33</c:f>
+              <c:f>雷豪!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2348,7 +2352,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -2417,7 +2423,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$M$34:$M$65</c:f>
+              <c:f>雷豪!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2527,7 +2533,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$F$33</c:f>
+              <c:f>雷豪!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2599,7 +2605,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -2633,7 +2641,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$F$34:$F$65</c:f>
+              <c:f>雷豪!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2727,11 +2735,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218071808"/>
-        <c:axId val="218065920"/>
+        <c:axId val="-665046656"/>
+        <c:axId val="-665051552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218041728"/>
+        <c:axId val="-665048288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2759,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218064000"/>
+        <c:crossAx val="-665056992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2759,7 +2767,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218064000"/>
+        <c:axId val="-665056992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2831,12 +2839,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218041728"/>
+        <c:crossAx val="-665048288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218065920"/>
+        <c:axId val="-665051552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,12 +2864,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218071808"/>
+        <c:crossAx val="-665046656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="218071808"/>
+        <c:axId val="-665046656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2870,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218065920"/>
+        <c:crossAx val="-665051552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3067,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3473,8 +3483,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="223013504"/>
-        <c:axId val="223093120"/>
+        <c:axId val="-662403152"/>
+        <c:axId val="-662410768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3989,7 +3999,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4306,7 +4318,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4424,8 +4438,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223013504"/>
-        <c:axId val="223093120"/>
+        <c:axId val="-662403152"/>
+        <c:axId val="-662410768"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4499,7 +4513,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4708,7 +4724,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4929,7 +4947,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5180,7 +5200,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5298,11 +5320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223105024"/>
-        <c:axId val="223095040"/>
+        <c:axId val="-662402608"/>
+        <c:axId val="-662405872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223013504"/>
+        <c:axId val="-662403152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5322,7 +5344,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223093120"/>
+        <c:crossAx val="-662410768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5330,7 +5352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223093120"/>
+        <c:axId val="-662410768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5402,12 +5424,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223013504"/>
+        <c:crossAx val="-662403152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223095040"/>
+        <c:axId val="-662405872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,12 +5449,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223105024"/>
+        <c:crossAx val="-662402608"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="223105024"/>
+        <c:axId val="-662402608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5441,7 +5463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223095040"/>
+        <c:crossAx val="-662405872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5517,7 +5539,7 @@
               <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>王一峰</a:t>
+              <a:t>雷豪</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -5575,7 +5597,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$U$33</c:f>
+              <c:f>雷豪!$U$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5630,7 +5652,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5654,7 +5678,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5738,7 +5762,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$U$34:$U$65</c:f>
+              <c:f>雷豪!$U$34:$U$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -5826,7 +5850,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$Q$33</c:f>
+              <c:f>雷豪!$Q$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5867,7 +5891,7 @@
           </c:dPt>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5951,7 +5975,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$Q$34:$Q$65</c:f>
+              <c:f>雷豪!$Q$34:$Q$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
                 <c:ptCount val="32"/>
@@ -5969,8 +5993,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="223349760"/>
-        <c:axId val="223372032"/>
+        <c:axId val="-662409680"/>
+        <c:axId val="-662409136"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5980,7 +6004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$R$33</c:f>
+              <c:f>雷豪!$R$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6129,7 +6153,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6213,7 +6237,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$R$34:$R$65</c:f>
+              <c:f>雷豪!$R$34:$R$65</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
                 <c:ptCount val="32"/>
@@ -6227,7 +6251,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$V$33</c:f>
+              <c:f>雷豪!$V$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6317,7 +6341,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6401,7 +6425,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$V$34:$V$65</c:f>
+              <c:f>雷豪!$V$34:$V$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6415,7 +6439,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$G$33</c:f>
+              <c:f>雷豪!$G$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6485,7 +6509,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6555,7 +6581,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>王一峰!$B$34:$B$65</c:f>
+              <c:f>雷豪!$B$34:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>yy\/mm\/dd</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6639,7 +6665,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$G$34:$G$65</c:f>
+              <c:f>雷豪!$G$34:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6728,7 +6754,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$E$33</c:f>
+              <c:f>雷豪!$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6797,7 +6823,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6821,7 +6849,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$E$34:$E$65</c:f>
+              <c:f>雷豪!$E$34:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="32"/>
@@ -6915,8 +6943,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223349760"/>
-        <c:axId val="223372032"/>
+        <c:axId val="-662409680"/>
+        <c:axId val="-662409136"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6926,7 +6954,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$H$33</c:f>
+              <c:f>雷豪!$H$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6990,7 +7018,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7070,7 +7100,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$H$34:$H$65</c:f>
+              <c:f>雷豪!$H$34:$H$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7159,7 +7189,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$X$33</c:f>
+              <c:f>雷豪!$X$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7199,7 +7229,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7258,7 +7290,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$X$34:$X$65</c:f>
+              <c:f>雷豪!$X$34:$X$65</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7368,7 +7400,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$M$33</c:f>
+              <c:f>雷豪!$M$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7420,7 +7452,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7489,7 +7523,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$M$34:$M$65</c:f>
+              <c:f>雷豪!$M$34:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7599,7 +7633,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>王一峰!$F$33</c:f>
+              <c:f>雷豪!$F$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7671,7 +7705,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7695,7 +7731,7 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>王一峰!$F$34:$F$65</c:f>
+              <c:f>雷豪!$F$34:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="32"/>
@@ -7789,11 +7825,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223388032"/>
-        <c:axId val="223373952"/>
+        <c:axId val="-662408592"/>
+        <c:axId val="-662411312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223349760"/>
+        <c:axId val="-662409680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7813,7 +7849,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223372032"/>
+        <c:crossAx val="-662409136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7821,7 +7857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223372032"/>
+        <c:axId val="-662409136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7893,12 +7929,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223349760"/>
+        <c:crossAx val="-662409680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223373952"/>
+        <c:axId val="-662411312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7918,12 +7954,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223388032"/>
+        <c:crossAx val="-662408592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="223388032"/>
+        <c:axId val="-662408592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7932,7 +7968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223373952"/>
+        <c:crossAx val="-662411312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8121,7 +8157,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8535,8 +8573,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="223531392"/>
-        <c:axId val="223532928"/>
+        <c:axId val="-662411856"/>
+        <c:axId val="-662415120"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9051,7 +9089,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9368,7 +9408,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9486,8 +9528,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223531392"/>
-        <c:axId val="223532928"/>
+        <c:axId val="-662411856"/>
+        <c:axId val="-662415120"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9561,7 +9603,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9770,7 +9814,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9991,7 +10037,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10242,7 +10290,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10360,11 +10410,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="223565312"/>
-        <c:axId val="223563776"/>
+        <c:axId val="-662405328"/>
+        <c:axId val="-662406416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="223531392"/>
+        <c:axId val="-662411856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10384,7 +10434,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223532928"/>
+        <c:crossAx val="-662415120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10392,7 +10442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="223532928"/>
+        <c:axId val="-662415120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10464,12 +10514,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223531392"/>
+        <c:crossAx val="-662411856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223563776"/>
+        <c:axId val="-662406416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10489,12 +10539,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223565312"/>
+        <c:crossAx val="-662405328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="223565312"/>
+        <c:axId val="-662405328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10503,7 +10553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223563776"/>
+        <c:crossAx val="-662406416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10692,9 +10742,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -11108,8 +11156,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="224073216"/>
-        <c:axId val="224074752"/>
+        <c:axId val="-660341408"/>
+        <c:axId val="-660329440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12059,8 +12107,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224073216"/>
-        <c:axId val="224074752"/>
+        <c:axId val="-660341408"/>
+        <c:axId val="-660329440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12343,9 +12391,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12566,9 +12612,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12937,11 +12981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="224098944"/>
-        <c:axId val="224097408"/>
+        <c:axId val="-660344128"/>
+        <c:axId val="-660344672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="224073216"/>
+        <c:axId val="-660341408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12961,7 +13005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224074752"/>
+        <c:crossAx val="-660329440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -12969,7 +13013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="224074752"/>
+        <c:axId val="-660329440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13041,12 +13085,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224073216"/>
+        <c:crossAx val="-660341408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="224097408"/>
+        <c:axId val="-660344672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13066,12 +13110,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="224098944"/>
+        <c:crossAx val="-660344128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="224098944"/>
+        <c:axId val="-660344128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13080,7 +13124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="224097408"/>
+        <c:crossAx val="-660344672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13269,9 +13313,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -13685,8 +13727,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="243059328"/>
-        <c:axId val="243093888"/>
+        <c:axId val="-660333248"/>
+        <c:axId val="-660343584"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14636,8 +14678,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243059328"/>
-        <c:axId val="243093888"/>
+        <c:axId val="-660333248"/>
+        <c:axId val="-660343584"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14920,9 +14962,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15143,9 +15183,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15514,11 +15552,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="243097600"/>
-        <c:axId val="243095808"/>
+        <c:axId val="-660331072"/>
+        <c:axId val="-660335424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="243059328"/>
+        <c:axId val="-660333248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15538,7 +15576,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243093888"/>
+        <c:crossAx val="-660343584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -15546,7 +15584,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243093888"/>
+        <c:axId val="-660343584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15618,12 +15656,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243059328"/>
+        <c:crossAx val="-660333248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="243095808"/>
+        <c:axId val="-660335424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15643,12 +15681,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243097600"/>
+        <c:crossAx val="-660331072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="243097600"/>
+        <c:axId val="-660331072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15657,7 +15695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="243095808"/>
+        <c:crossAx val="-660335424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15736,6 +15774,12 @@
               <a:t>徐琪</a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -15846,7 +15890,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -16047,8 +16093,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="218208512"/>
-        <c:axId val="218226688"/>
+        <c:axId val="-665049920"/>
+        <c:axId val="-665048832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -16563,7 +16609,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -16875,7 +16923,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -17003,8 +17053,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218208512"/>
-        <c:axId val="218226688"/>
+        <c:axId val="-665049920"/>
+        <c:axId val="-665048832"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17078,7 +17128,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -17287,7 +17339,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -17508,7 +17562,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -17759,7 +17815,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -17887,11 +17945,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218230144"/>
-        <c:axId val="218228608"/>
+        <c:axId val="-665047744"/>
+        <c:axId val="-665046112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218208512"/>
+        <c:axId val="-665049920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17911,7 +17969,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218226688"/>
+        <c:crossAx val="-665048832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -17919,7 +17977,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218226688"/>
+        <c:axId val="-665048832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17991,12 +18049,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218208512"/>
+        <c:crossAx val="-665049920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218228608"/>
+        <c:axId val="-665046112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18016,12 +18074,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218230144"/>
+        <c:crossAx val="-665047744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="218230144"/>
+        <c:axId val="-665047744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18030,7 +18088,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218228608"/>
+        <c:crossAx val="-665046112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18109,6 +18167,12 @@
               <a:t>骆加</a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -18219,7 +18283,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -18633,8 +18699,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="221060096"/>
-        <c:axId val="221078272"/>
+        <c:axId val="-665043392"/>
+        <c:axId val="-665055360"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -19149,7 +19215,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -19466,7 +19534,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -19594,8 +19664,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221060096"/>
-        <c:axId val="221078272"/>
+        <c:axId val="-665043392"/>
+        <c:axId val="-665055360"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -19669,7 +19739,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -19878,7 +19950,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -20099,7 +20173,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -20350,7 +20426,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -20478,11 +20556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221086080"/>
-        <c:axId val="221080192"/>
+        <c:axId val="-665051008"/>
+        <c:axId val="-665055904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221060096"/>
+        <c:axId val="-665043392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20502,7 +20580,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221078272"/>
+        <c:crossAx val="-665055360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20510,7 +20588,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221078272"/>
+        <c:axId val="-665055360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20582,12 +20660,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221060096"/>
+        <c:crossAx val="-665043392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221080192"/>
+        <c:axId val="-665055904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20607,12 +20685,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221086080"/>
+        <c:crossAx val="-665051008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="221086080"/>
+        <c:axId val="-665051008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20621,7 +20699,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221080192"/>
+        <c:crossAx val="-665055904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20700,6 +20778,12 @@
               <a:t>吕志远</a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -20810,7 +20894,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -21021,8 +21107,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="221817088"/>
-        <c:axId val="221843456"/>
+        <c:axId val="-665050464"/>
+        <c:axId val="-665052096"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -21537,7 +21623,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -21849,7 +21937,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -21977,8 +22067,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221817088"/>
-        <c:axId val="221843456"/>
+        <c:axId val="-665050464"/>
+        <c:axId val="-665052096"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -22052,7 +22142,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -22261,7 +22353,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -22482,7 +22576,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -22733,7 +22829,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -22861,11 +22959,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221846912"/>
-        <c:axId val="221845376"/>
+        <c:axId val="-665049376"/>
+        <c:axId val="-665042848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221817088"/>
+        <c:axId val="-665050464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22885,7 +22983,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221843456"/>
+        <c:crossAx val="-665052096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -22893,7 +22991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221843456"/>
+        <c:axId val="-665052096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22965,12 +23063,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221817088"/>
+        <c:crossAx val="-665050464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221845376"/>
+        <c:axId val="-665042848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22990,12 +23088,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221846912"/>
+        <c:crossAx val="-665049376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="221846912"/>
+        <c:axId val="-665049376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23004,7 +23102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221845376"/>
+        <c:crossAx val="-665042848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23083,6 +23181,12 @@
               <a:t>王亚运</a:t>
             </a:r>
             <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
@@ -23193,7 +23297,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -23617,8 +23723,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="222447872"/>
-        <c:axId val="222486528"/>
+        <c:axId val="-665044480"/>
+        <c:axId val="-665043936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -24133,7 +24239,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -24445,7 +24553,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -24573,8 +24683,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222447872"/>
-        <c:axId val="222486528"/>
+        <c:axId val="-665044480"/>
+        <c:axId val="-665043936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -24648,7 +24758,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -24857,7 +24969,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -25078,7 +25192,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -25329,7 +25445,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -25457,11 +25575,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222489984"/>
-        <c:axId val="222488448"/>
+        <c:axId val="-665057536"/>
+        <c:axId val="-665042304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222447872"/>
+        <c:axId val="-665044480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25481,7 +25599,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222486528"/>
+        <c:crossAx val="-665043936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25489,7 +25607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222486528"/>
+        <c:axId val="-665043936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25561,12 +25679,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222447872"/>
+        <c:crossAx val="-665044480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222488448"/>
+        <c:axId val="-665042304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25586,12 +25704,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222489984"/>
+        <c:crossAx val="-665057536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="222489984"/>
+        <c:axId val="-665057536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25600,7 +25718,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222488448"/>
+        <c:crossAx val="-665042304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25677,6 +25795,12 @@
                 <a:effectLst/>
               </a:rPr>
               <a:t>王超骏</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>-</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="zh-CN" altLang="zh-CN" sz="1800" b="1" i="0" baseline="0">
@@ -26205,8 +26329,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="222869760"/>
-        <c:axId val="222629888"/>
+        <c:axId val="-663801216"/>
+        <c:axId val="-663805024"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -26721,7 +26845,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -27033,7 +27159,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -27151,8 +27279,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222869760"/>
-        <c:axId val="222629888"/>
+        <c:axId val="-663801216"/>
+        <c:axId val="-663805024"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27226,7 +27354,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -27911,7 +28041,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -28029,11 +28161,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222633344"/>
-        <c:axId val="222631808"/>
+        <c:axId val="-663806656"/>
+        <c:axId val="-663803392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222869760"/>
+        <c:axId val="-663801216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28053,7 +28185,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222629888"/>
+        <c:crossAx val="-663805024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -28061,7 +28193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222629888"/>
+        <c:axId val="-663805024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28133,12 +28265,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222869760"/>
+        <c:crossAx val="-663801216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222631808"/>
+        <c:axId val="-663803392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28158,12 +28290,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222633344"/>
+        <c:crossAx val="-663806656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="222633344"/>
+        <c:axId val="-663806656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28172,7 +28304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222631808"/>
+        <c:crossAx val="-663803392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28355,7 +28487,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -28769,8 +28903,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="332985088"/>
-        <c:axId val="332986624"/>
+        <c:axId val="-663806112"/>
+        <c:axId val="-663804480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -28850,7 +28984,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -29162,7 +29298,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -29280,8 +29418,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="332985088"/>
-        <c:axId val="332986624"/>
+        <c:axId val="-663806112"/>
+        <c:axId val="-663804480"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29355,7 +29493,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -29564,7 +29704,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -29785,7 +29927,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -30036,7 +30180,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -30154,11 +30300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="333211520"/>
-        <c:axId val="333209984"/>
+        <c:axId val="-663803936"/>
+        <c:axId val="-663800672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="332985088"/>
+        <c:axId val="-663806112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30178,7 +30324,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332986624"/>
+        <c:crossAx val="-663804480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -30186,7 +30332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="332986624"/>
+        <c:axId val="-663804480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30258,12 +30404,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="332985088"/>
+        <c:crossAx val="-663806112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="333209984"/>
+        <c:axId val="-663800672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30283,12 +30429,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="333211520"/>
+        <c:crossAx val="-663803936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="333211520"/>
+        <c:axId val="-663803936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30297,7 +30443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333209984"/>
+        <c:crossAx val="-663800672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30894,8 +31040,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="221514752"/>
-        <c:axId val="221532928"/>
+        <c:axId val="-663799584"/>
+        <c:axId val="-662410224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -31405,8 +31551,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221514752"/>
-        <c:axId val="221532928"/>
+        <c:axId val="-663799584"/>
+        <c:axId val="-662410224"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -32279,11 +32425,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221548928"/>
-        <c:axId val="221534848"/>
+        <c:axId val="-662412944"/>
+        <c:axId val="-662416208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221514752"/>
+        <c:axId val="-663799584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32303,7 +32449,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221532928"/>
+        <c:crossAx val="-662410224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -32311,7 +32457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221532928"/>
+        <c:axId val="-662410224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32383,12 +32529,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221514752"/>
+        <c:crossAx val="-663799584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221534848"/>
+        <c:axId val="-662416208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32408,12 +32554,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221548928"/>
+        <c:crossAx val="-662412944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="221548928"/>
+        <c:axId val="-662412944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32422,7 +32568,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221534848"/>
+        <c:crossAx val="-662416208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32611,7 +32757,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -32812,8 +32960,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="222782976"/>
-        <c:axId val="222784512"/>
+        <c:axId val="-662406960"/>
+        <c:axId val="-662407504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -33140,7 +33288,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -33457,7 +33607,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -33575,8 +33727,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222782976"/>
-        <c:axId val="222784512"/>
+        <c:axId val="-662406960"/>
+        <c:axId val="-662407504"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -33650,7 +33802,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -33859,7 +34013,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -34080,7 +34236,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -34331,7 +34489,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -34449,11 +34609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="222800512"/>
-        <c:axId val="222798976"/>
+        <c:axId val="-662414032"/>
+        <c:axId val="-662404784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="222782976"/>
+        <c:axId val="-662406960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34473,7 +34633,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222784512"/>
+        <c:crossAx val="-662407504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -34481,7 +34641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="222784512"/>
+        <c:axId val="-662407504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34553,12 +34713,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222782976"/>
+        <c:crossAx val="-662406960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="222798976"/>
+        <c:axId val="-662404784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34578,12 +34738,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="222800512"/>
+        <c:crossAx val="-662414032"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="222800512"/>
+        <c:axId val="-662414032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34592,7 +34752,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="222798976"/>
+        <c:crossAx val="-662404784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -36451,7 +36611,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -36493,7 +36653,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -36528,7 +36688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -36740,8 +36900,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="M13:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A235" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q234" sqref="Q234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -40857,7 +41017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
@@ -42880,7 +43040,7 @@
   <dimension ref="A2:Y65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
@@ -44825,7 +44985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Y65"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>

--- a/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/DayReport.xlsx
+++ b/src/Presentation/CTM.Win/ReportTemplate/UserDailyProfitFlow/DayReport.xlsx
@@ -17,7 +17,7 @@
     <sheet name="傅锋传" sheetId="199" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">短差!$A$1:$P$275</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">短差!$A$1:$P$274</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -903,8 +903,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-938812768"/>
-        <c:axId val="-938816576"/>
+        <c:axId val="962056320"/>
+        <c:axId val="962082432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1846,8 +1846,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-938812768"/>
-        <c:axId val="-938816576"/>
+        <c:axId val="962056320"/>
+        <c:axId val="962082432"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2738,11 +2738,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-938808960"/>
-        <c:axId val="-938811680"/>
+        <c:axId val="962069920"/>
+        <c:axId val="962073184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-938812768"/>
+        <c:axId val="962056320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2762,7 +2762,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938816576"/>
+        <c:crossAx val="962082432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2770,7 +2770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-938816576"/>
+        <c:axId val="962082432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,12 +2842,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938812768"/>
+        <c:crossAx val="962056320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-938811680"/>
+        <c:axId val="962073184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,12 +2867,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938808960"/>
+        <c:crossAx val="962069920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-938808960"/>
+        <c:axId val="962069920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2881,7 +2881,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-938811680"/>
+        <c:crossAx val="962073184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3070,9 +3070,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -3486,8 +3484,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862260256"/>
-        <c:axId val="-862258080"/>
+        <c:axId val="894573648"/>
+        <c:axId val="894570928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4002,9 +4000,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4321,9 +4317,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -4441,8 +4435,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862260256"/>
-        <c:axId val="-862258080"/>
+        <c:axId val="894573648"/>
+        <c:axId val="894570928"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4516,9 +4510,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4727,9 +4719,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -4950,9 +4940,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -5203,9 +5191,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5323,11 +5309,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862274400"/>
-        <c:axId val="-862277664"/>
+        <c:axId val="894580720"/>
+        <c:axId val="894566576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862260256"/>
+        <c:axId val="894573648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5347,7 +5333,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862258080"/>
+        <c:crossAx val="894570928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -5355,7 +5341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862258080"/>
+        <c:axId val="894570928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5427,12 +5413,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862260256"/>
+        <c:crossAx val="894573648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862277664"/>
+        <c:axId val="894566576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,12 +5438,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862274400"/>
+        <c:crossAx val="894580720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862274400"/>
+        <c:axId val="894580720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5466,7 +5452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862277664"/>
+        <c:crossAx val="894566576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5655,9 +5641,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -5996,8 +5980,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862270048"/>
-        <c:axId val="-943342688"/>
+        <c:axId val="894569296"/>
+        <c:axId val="894581264"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6512,9 +6496,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -6826,9 +6808,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -6946,8 +6926,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862270048"/>
-        <c:axId val="-943342688"/>
+        <c:axId val="894569296"/>
+        <c:axId val="894581264"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7021,9 +7001,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7232,9 +7210,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7455,9 +7431,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -7708,9 +7682,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7828,11 +7800,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943328544"/>
-        <c:axId val="-943338336"/>
+        <c:axId val="894578000"/>
+        <c:axId val="894577456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862270048"/>
+        <c:axId val="894569296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7852,7 +7824,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943342688"/>
+        <c:crossAx val="894581264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -7860,7 +7832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-943342688"/>
+        <c:axId val="894581264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7932,12 +7904,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862270048"/>
+        <c:crossAx val="894569296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-943338336"/>
+        <c:axId val="894577456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7957,12 +7929,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943328544"/>
+        <c:crossAx val="894578000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-943328544"/>
+        <c:axId val="894578000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7971,7 +7943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-943338336"/>
+        <c:crossAx val="894577456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8160,9 +8132,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8576,8 +8546,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-943330720"/>
-        <c:axId val="-943335072"/>
+        <c:axId val="894575824"/>
+        <c:axId val="894578544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9092,9 +9062,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9411,9 +9379,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9531,8 +9497,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943330720"/>
-        <c:axId val="-943335072"/>
+        <c:axId val="894575824"/>
+        <c:axId val="894578544"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9606,9 +9572,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9817,9 +9781,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10040,9 +10002,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -10293,9 +10253,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -10413,11 +10371,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943332896"/>
-        <c:axId val="-943336160"/>
+        <c:axId val="894580176"/>
+        <c:axId val="894579632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-943330720"/>
+        <c:axId val="894575824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10437,7 +10395,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943335072"/>
+        <c:crossAx val="894578544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -10445,7 +10403,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-943335072"/>
+        <c:axId val="894578544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10517,12 +10475,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943330720"/>
+        <c:crossAx val="894575824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-943336160"/>
+        <c:axId val="894579632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10542,12 +10500,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943332896"/>
+        <c:crossAx val="894580176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-943332896"/>
+        <c:axId val="894580176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10556,7 +10514,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-943336160"/>
+        <c:crossAx val="894579632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10745,9 +10703,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -11161,8 +11117,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-943329632"/>
-        <c:axId val="-943334528"/>
+        <c:axId val="771351328"/>
+        <c:axId val="771363840"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11677,9 +11633,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -11991,9 +11945,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -12111,8 +12063,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943329632"/>
-        <c:axId val="-943334528"/>
+        <c:axId val="771351328"/>
+        <c:axId val="771363840"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -12186,9 +12138,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12397,9 +12347,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12620,9 +12568,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -12873,9 +12819,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -12993,11 +12937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943337792"/>
-        <c:axId val="-943327456"/>
+        <c:axId val="771357856"/>
+        <c:axId val="771356768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-943329632"/>
+        <c:axId val="771351328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13017,7 +12961,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943334528"/>
+        <c:crossAx val="771363840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -13025,7 +12969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-943334528"/>
+        <c:axId val="771363840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13097,12 +13041,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943329632"/>
+        <c:crossAx val="771351328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-943327456"/>
+        <c:axId val="771356768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13122,12 +13066,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943337792"/>
+        <c:crossAx val="771357856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-943337792"/>
+        <c:axId val="771357856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13136,7 +13080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-943327456"/>
+        <c:crossAx val="771356768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13325,9 +13269,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -13741,8 +13683,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-943341056"/>
-        <c:axId val="-943335616"/>
+        <c:axId val="771358400"/>
+        <c:axId val="771352416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14257,9 +14199,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14576,9 +14516,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -14696,8 +14634,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943341056"/>
-        <c:axId val="-943335616"/>
+        <c:axId val="771358400"/>
+        <c:axId val="771352416"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -14771,9 +14709,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -14982,9 +14918,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15205,9 +15139,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -15458,9 +15390,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -15578,11 +15508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-943333440"/>
-        <c:axId val="-943333984"/>
+        <c:axId val="771359488"/>
+        <c:axId val="771352960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-943341056"/>
+        <c:axId val="771358400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15602,7 +15532,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943335616"/>
+        <c:crossAx val="771352416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -15610,7 +15540,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-943335616"/>
+        <c:axId val="771352416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15682,12 +15612,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943341056"/>
+        <c:crossAx val="771358400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-943333984"/>
+        <c:axId val="771352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15707,12 +15637,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-943333440"/>
+        <c:crossAx val="771359488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-943333440"/>
+        <c:axId val="771359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15721,7 +15651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-943333984"/>
+        <c:crossAx val="771352960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16119,8 +16049,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-938804064"/>
-        <c:axId val="-938807328"/>
+        <c:axId val="962076448"/>
+        <c:axId val="962078624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17079,8 +17009,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-938804064"/>
-        <c:axId val="-938807328"/>
+        <c:axId val="962076448"/>
+        <c:axId val="962078624"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -17971,11 +17901,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-938803520"/>
-        <c:axId val="-938806784"/>
+        <c:axId val="962050880"/>
+        <c:axId val="962082976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-938804064"/>
+        <c:axId val="962076448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17995,7 +17925,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938807328"/>
+        <c:crossAx val="962078624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -18003,7 +17933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-938807328"/>
+        <c:axId val="962078624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18075,12 +18005,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938804064"/>
+        <c:crossAx val="962076448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-938806784"/>
+        <c:axId val="962082976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18100,12 +18030,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-938803520"/>
+        <c:crossAx val="962050880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-938803520"/>
+        <c:axId val="962050880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18114,7 +18044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-938806784"/>
+        <c:crossAx val="962082976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18725,8 +18655,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862261888"/>
-        <c:axId val="-862276576"/>
+        <c:axId val="962074816"/>
+        <c:axId val="962063936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -19690,8 +19620,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862261888"/>
-        <c:axId val="-862276576"/>
+        <c:axId val="962074816"/>
+        <c:axId val="962063936"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -20582,11 +20512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862272224"/>
-        <c:axId val="-862251552"/>
+        <c:axId val="962072096"/>
+        <c:axId val="962061216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862261888"/>
+        <c:axId val="962074816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20606,7 +20536,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862276576"/>
+        <c:crossAx val="962063936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -20614,7 +20544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862276576"/>
+        <c:axId val="962063936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20686,12 +20616,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862261888"/>
+        <c:crossAx val="962074816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862251552"/>
+        <c:axId val="962061216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20711,12 +20641,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862272224"/>
+        <c:crossAx val="962072096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862272224"/>
+        <c:axId val="962072096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20725,7 +20655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862251552"/>
+        <c:crossAx val="962061216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21133,8 +21063,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862267328"/>
-        <c:axId val="-862280928"/>
+        <c:axId val="962065568"/>
+        <c:axId val="962067200"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -22093,8 +22023,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862267328"/>
-        <c:axId val="-862280928"/>
+        <c:axId val="962065568"/>
+        <c:axId val="962067200"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -22985,11 +22915,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862253728"/>
-        <c:axId val="-862264064"/>
+        <c:axId val="962075904"/>
+        <c:axId val="962064480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862267328"/>
+        <c:axId val="962065568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23009,7 +22939,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862280928"/>
+        <c:crossAx val="962067200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -23017,7 +22947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862280928"/>
+        <c:axId val="962067200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23089,12 +23019,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862267328"/>
+        <c:crossAx val="962065568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862264064"/>
+        <c:axId val="962064480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23114,12 +23044,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862253728"/>
+        <c:crossAx val="962075904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862253728"/>
+        <c:axId val="962075904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23128,7 +23058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862264064"/>
+        <c:crossAx val="962064480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23749,8 +23679,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862280384"/>
-        <c:axId val="-862262976"/>
+        <c:axId val="962070464"/>
+        <c:axId val="962056864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -24709,8 +24639,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862280384"/>
-        <c:axId val="-862262976"/>
+        <c:axId val="962070464"/>
+        <c:axId val="962056864"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -25601,11 +25531,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862254272"/>
-        <c:axId val="-862275488"/>
+        <c:axId val="962058496"/>
+        <c:axId val="962059584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862280384"/>
+        <c:axId val="962070464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25625,7 +25555,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862262976"/>
+        <c:crossAx val="962056864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -25633,7 +25563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862262976"/>
+        <c:axId val="962056864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25705,12 +25635,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862280384"/>
+        <c:crossAx val="962070464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862275488"/>
+        <c:axId val="962059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25730,12 +25660,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862254272"/>
+        <c:crossAx val="962058496"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862254272"/>
+        <c:axId val="962058496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25744,7 +25674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862275488"/>
+        <c:crossAx val="962059584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26343,8 +26273,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862279840"/>
-        <c:axId val="-862279296"/>
+        <c:axId val="962068288"/>
+        <c:axId val="962069376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -26858,8 +26788,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862279840"/>
-        <c:axId val="-862279296"/>
+        <c:axId val="962068288"/>
+        <c:axId val="962069376"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -27740,11 +27670,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862259168"/>
-        <c:axId val="-862266784"/>
+        <c:axId val="962051968"/>
+        <c:axId val="962051424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862279840"/>
+        <c:axId val="962068288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27764,7 +27694,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862279296"/>
+        <c:crossAx val="962069376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -27772,7 +27702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862279296"/>
+        <c:axId val="962069376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27844,12 +27774,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862279840"/>
+        <c:crossAx val="962068288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862266784"/>
+        <c:axId val="962051424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27869,12 +27799,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862259168"/>
+        <c:crossAx val="962051968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862259168"/>
+        <c:axId val="962051968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27883,7 +27813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862266784"/>
+        <c:crossAx val="962051424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -28488,8 +28418,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862262432"/>
-        <c:axId val="-862252640"/>
+        <c:axId val="962077536"/>
+        <c:axId val="962078080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -29438,8 +29368,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862262432"/>
-        <c:axId val="-862252640"/>
+        <c:axId val="962077536"/>
+        <c:axId val="962078080"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -30320,11 +30250,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862259712"/>
-        <c:axId val="-862249920"/>
+        <c:axId val="962071008"/>
+        <c:axId val="962080256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862262432"/>
+        <c:axId val="962077536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30344,7 +30274,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862252640"/>
+        <c:crossAx val="962078080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -30352,7 +30282,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862252640"/>
+        <c:axId val="962078080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30424,12 +30354,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862262432"/>
+        <c:crossAx val="962077536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862249920"/>
+        <c:axId val="962080256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30449,12 +30379,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862259712"/>
+        <c:crossAx val="962071008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862259712"/>
+        <c:axId val="962071008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30463,7 +30393,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862249920"/>
+        <c:crossAx val="962080256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -30646,9 +30576,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -31062,8 +30990,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862268416"/>
-        <c:axId val="-862267872"/>
+        <c:axId val="962060128"/>
+        <c:axId val="962054688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -31143,9 +31071,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -31457,9 +31383,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -31577,8 +31501,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862268416"/>
-        <c:axId val="-862267872"/>
+        <c:axId val="962060128"/>
+        <c:axId val="962054688"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -31652,9 +31576,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -31863,9 +31785,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -32086,9 +32006,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -32339,9 +32257,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -32459,11 +32375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862258624"/>
-        <c:axId val="-862265696"/>
+        <c:axId val="962063392"/>
+        <c:axId val="962062848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862268416"/>
+        <c:axId val="962060128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32483,7 +32399,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862267872"/>
+        <c:crossAx val="962054688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -32491,7 +32407,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862267872"/>
+        <c:axId val="962054688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32563,12 +32479,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862268416"/>
+        <c:crossAx val="962060128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862265696"/>
+        <c:axId val="962062848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32588,12 +32504,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862258624"/>
+        <c:crossAx val="962063392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862258624"/>
+        <c:axId val="962063392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32602,7 +32518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862265696"/>
+        <c:crossAx val="962062848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -32791,9 +32707,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -32994,8 +32908,8 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-68"/>
-        <c:axId val="-862270592"/>
-        <c:axId val="-862278752"/>
+        <c:axId val="962059040"/>
+        <c:axId val="894576368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -33322,9 +33236,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -33636,9 +33548,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -33756,8 +33666,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862270592"/>
-        <c:axId val="-862278752"/>
+        <c:axId val="962059040"/>
+        <c:axId val="894576368"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -33831,9 +33741,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -34042,9 +33950,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -34265,9 +34171,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -34518,9 +34422,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -34638,11 +34540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-862255904"/>
-        <c:axId val="-862272768"/>
+        <c:axId val="894573104"/>
+        <c:axId val="894572560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-862270592"/>
+        <c:axId val="962059040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34662,7 +34564,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862278752"/>
+        <c:crossAx val="894576368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -34670,7 +34572,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-862278752"/>
+        <c:axId val="894576368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34742,12 +34644,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862270592"/>
+        <c:crossAx val="962059040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-862272768"/>
+        <c:axId val="894572560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34767,12 +34669,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-862255904"/>
+        <c:crossAx val="894573104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-862255904"/>
+        <c:axId val="894573104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34781,7 +34683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-862272768"/>
+        <c:crossAx val="894572560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -36962,8 +36864,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B13:Y268"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
